--- a/Project_TestData.xlsx
+++ b/Project_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8400"/>
+    <workbookView windowWidth="19455" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,16 @@
     <t>Verify user can able to create a lead and convert to opportunity</t>
   </si>
   <si>
-    <t>star</t>
+    <t>Captain</t>
   </si>
   <si>
-    <t>Bruce</t>
+    <t>America</t>
   </si>
   <si>
     <t>QualiTest Groups</t>
   </si>
   <si>
-    <t>Bruce.stark@qualitestgroups.com</t>
+    <t>Captain.america@ualitestgroup.com</t>
   </si>
 </sst>
 </file>
@@ -51,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -73,60 +73,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,9 +89,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +109,58 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,10 +173,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,7 +189,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,22 +204,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,19 +224,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,163 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,8 +449,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,15 +481,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,32 +509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,10 +523,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,130 +564,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,7 +1062,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Bruce.stark@qualitestgroups.com" tooltip="mailto:Bruce.stark@qualitestgroups.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="Captain.america@ualitestgroup.com" tooltip="mailto:Captain.america@ualitestgroup.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Project_TestData.xlsx
+++ b/Project_TestData.xlsx
@@ -34,16 +34,16 @@
     <t>Verify user can able to create a lead and convert to opportunity</t>
   </si>
   <si>
-    <t>Captain</t>
+    <t xml:space="preserve">Doctor </t>
   </si>
   <si>
-    <t>America</t>
+    <t>Strange</t>
   </si>
   <si>
     <t>QualiTest Groups</t>
   </si>
   <si>
-    <t>Captain.america@ualitestgroup.com</t>
+    <t>doctor.strange@ualitestgroup.com</t>
   </si>
 </sst>
 </file>
@@ -52,11 +52,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,15 +67,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,6 +81,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -105,37 +173,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,60 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,31 +232,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,25 +376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,121 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,21 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -481,6 +474,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +514,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -526,17 +545,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -546,7 +554,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,130 +572,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -695,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,7 +1070,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Captain.america@ualitestgroup.com" tooltip="mailto:Captain.america@ualitestgroup.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="doctor.strange@ualitestgroup.com" tooltip="mailto:doctor.strange@ualitestgroup.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Project_TestData.xlsx
+++ b/Project_TestData.xlsx
@@ -34,16 +34,16 @@
     <t>Verify user can able to create a lead and convert to opportunity</t>
   </si>
   <si>
-    <t xml:space="preserve">Doctor </t>
+    <t>Spider</t>
   </si>
   <si>
-    <t>Strange</t>
+    <t>Man</t>
   </si>
   <si>
     <t>QualiTest Groups</t>
   </si>
   <si>
-    <t>doctor.strange@ualitestgroup.com</t>
+    <t>spider.man@ualitestgroup.com</t>
   </si>
 </sst>
 </file>
@@ -56,7 +56,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,42 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,55 +118,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,18 +154,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,9 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,36 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,31 +224,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,151 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +446,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,10 +478,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -507,23 +503,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,19 +543,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,130 +564,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1062,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="doctor.strange@ualitestgroup.com" tooltip="mailto:doctor.strange@ualitestgroup.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="spider.man@ualitestgroup.com" tooltip="mailto:spider.man@ualitestgroup.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
